--- a/Code/csv/fMRI - computational models of happiness.xlsx
+++ b/Code/csv/fMRI - computational models of happiness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="50" uniqueCount="10">
   <si>
     <t>R2</t>
   </si>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -91,15 +91,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="4.7109375" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="4" max="4" width="5.85546875" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -120,85 +123,85 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>0.37298832626207157</v>
-      </c>
-      <c r="B2">
-        <v>0.33928291795489834</v>
-      </c>
-      <c r="C2">
-        <v>-690</v>
-      </c>
-      <c r="D2">
-        <v>-1058</v>
+      <c r="A2" s="0">
+        <v>0.36884306732335115</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.33492521634089162</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-748</v>
+      </c>
+      <c r="D2" s="0">
+        <v>-1149</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>0.39384151584472332</v>
-      </c>
-      <c r="B3">
-        <v>0.34961199640472473</v>
-      </c>
-      <c r="C3">
-        <v>-620</v>
-      </c>
-      <c r="D3">
-        <v>-1080</v>
+      <c r="A3" s="0">
+        <v>0.39383973401356975</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.34962219048968901</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-688</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-1190</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>0.40511901974408177</v>
-      </c>
-      <c r="B4">
-        <v>0.34985432784040754</v>
-      </c>
-      <c r="C4">
-        <v>-491</v>
-      </c>
-      <c r="D4">
-        <v>-1043</v>
+      <c r="A4" s="0">
+        <v>0.40588416068218564</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.35070557513315231</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-550</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-1152</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>0.43268352695119056</v>
-      </c>
-      <c r="B5">
-        <v>0.37995603073724221</v>
-      </c>
-      <c r="C5">
-        <v>-616</v>
-      </c>
-      <c r="D5">
-        <v>-1168</v>
+      <c r="A5" s="0">
+        <v>0.42708796174524721</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.37385887373803706</v>
+      </c>
+      <c r="C5" s="0">
+        <v>-654</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-1256</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>0.42159663930932773</v>
-      </c>
-      <c r="B6">
-        <v>0.37937596211826102</v>
-      </c>
-      <c r="C6">
-        <v>-735</v>
-      </c>
-      <c r="D6">
-        <v>-1195</v>
+      <c r="A6" s="0">
+        <v>0.41298563355075529</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.37015161624796744</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-772</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-1274</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -209,16 +212,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
